--- a/src/tests/integration/__tests__/testFiles/validExcelWithErrors.xlsx
+++ b/src/tests/integration/__tests__/testFiles/validExcelWithErrors.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>TN2012343</t>
   </si>
@@ -22,24 +22,15 @@
     <t>Damian</t>
   </si>
   <si>
-    <t>Potter</t>
-  </si>
-  <si>
     <t>Latifa.Damian@some.com</t>
   </si>
   <si>
-    <t>@some.com</t>
-  </si>
-  <si>
     <t>TN201235</t>
   </si>
   <si>
     <t>Joy</t>
   </si>
   <si>
-    <t>Liminade</t>
-  </si>
-  <si>
     <t>Joy.Dark@some.com</t>
   </si>
   <si>
@@ -52,9 +43,6 @@
     <t>Arrow</t>
   </si>
   <si>
-    <t>Franchise</t>
-  </si>
-  <si>
     <t>Soy.Arrow@some.com</t>
   </si>
   <si>
@@ -67,7 +55,15 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Roy.Greensome.com</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Roy.Greensome.com</t>
+    </r>
   </si>
   <si>
     <t>TN201238</t>
@@ -79,9 +75,6 @@
     <t>Felicity</t>
   </si>
   <si>
-    <t>Bullock</t>
-  </si>
-  <si>
     <t>Boy.Felicity@some.com</t>
   </si>
   <si>
@@ -106,9 +99,6 @@
     <t>Spider</t>
   </si>
   <si>
-    <t>Sadia</t>
-  </si>
-  <si>
     <t>Jaga.Spider@some.com</t>
   </si>
   <si>
@@ -118,9 +108,6 @@
     <t>Cyber</t>
   </si>
   <si>
-    <t>Cruise</t>
-  </si>
-  <si>
     <t>TN201242</t>
   </si>
   <si>
@@ -130,9 +117,6 @@
     <t>Crime</t>
   </si>
   <si>
-    <t>Banks</t>
-  </si>
-  <si>
     <t>Broos.Crime@some.com</t>
   </si>
   <si>
@@ -140,9 +124,6 @@
   </si>
   <si>
     <t>Nogood</t>
-  </si>
-  <si>
-    <t>Llyod</t>
   </si>
   <si>
     <t>Brass.Nogood@some.com</t>
@@ -151,21 +132,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,210 +169,1315 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="256" width="14.5" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" t="s" s="3">
         <v>5</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s" s="3">
         <v>9</v>
       </c>
+      <c r="D3" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s" s="5">
         <v>14</v>
       </c>
+      <c r="E4" s="4"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" t="s" s="3">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D5" t="s" s="3">
         <v>18</v>
       </c>
+      <c r="E5" s="4"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B7" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>27</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C9" t="s" s="3">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D9" t="s" s="3">
         <v>32</v>
       </c>
+      <c r="E9" s="4"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" t="s" s="3">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" t="s" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E4"/>
+    <hyperlink ref="D4" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/tests/integration/__tests__/testFiles/validExcelWithErrors.xlsx
+++ b/src/tests/integration/__tests__/testFiles/validExcelWithErrors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>TN2012343</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Damian</t>
+  </si>
+  <si>
+    <t>middlename</t>
   </si>
   <si>
     <t>Latifa.Damian@some.com</t>
@@ -59,7 +62,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
       <t>Roy.Greensome.com</t>
@@ -160,16 +163,22 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -182,16 +191,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,19 +217,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -240,6 +249,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0000ff"/>
     </indexedColors>
@@ -379,13 +389,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -484,10 +488,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -742,13 +746,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1061,10 +1059,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1318,14 +1316,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.7" customHeight="1">
@@ -1341,138 +1339,160 @@
       <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="14.7" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="14.7" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="14.7" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="14.7" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" ht="14.7" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" ht="14.7" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" ht="14.7" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" ht="14.7" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s" s="3">
         <v>35</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="E4" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
